--- a/OBLIGATORIO PARALELO/Lista Funcionalidades Obligatorio Ago 2020 (1).xlsx
+++ b/OBLIGATORIO PARALELO/Lista Funcionalidades Obligatorio Ago 2020 (1).xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>TOTAL</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>Ver todos las inmuebles</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -697,7 +703,7 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -806,7 +812,9 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -837,7 +845,9 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="H14" s="22"/>
     </row>
@@ -853,7 +863,9 @@
       <c r="B16" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
       <c r="G16" s="2"/>
@@ -863,7 +875,9 @@
       <c r="B17" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="H17" s="22"/>
     </row>

--- a/OBLIGATORIO PARALELO/Lista Funcionalidades Obligatorio Ago 2020 (1).xlsx
+++ b/OBLIGATORIO PARALELO/Lista Funcionalidades Obligatorio Ago 2020 (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
   <si>
     <t>TOTAL</t>
   </si>
@@ -269,7 +269,16 @@
     <t>ok</t>
   </si>
   <si>
-    <t>???</t>
+    <t>hacer boton el option</t>
+  </si>
+  <si>
+    <t>falta 1 decimal para todos cambiar funcion que calculas ademas de precarga</t>
+  </si>
+  <si>
+    <t>falta que ande funcion boton</t>
+  </si>
+  <si>
+    <t>probar</t>
   </si>
 </sst>
 </file>
@@ -359,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,11 +429,85 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -702,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -876,7 +959,7 @@
         <v>76</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="4"/>
       <c r="H17" s="22"/>
@@ -885,7 +968,9 @@
       <c r="B18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="H18" s="22"/>
     </row>
@@ -913,7 +998,9 @@
         <v>30</v>
       </c>
       <c r="C21" s="17"/>
-      <c r="D21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E21" s="21"/>
       <c r="F21" s="3"/>
       <c r="G21" s="2"/>
@@ -925,7 +1012,9 @@
         <v>71</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="20"/>
+      <c r="D22" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E22" s="21"/>
       <c r="F22" s="3"/>
       <c r="G22" s="2"/>
@@ -937,7 +1026,9 @@
         <v>72</v>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="20"/>
+      <c r="D23" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E23" s="21"/>
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
@@ -949,7 +1040,9 @@
         <v>73</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E24" s="21"/>
       <c r="H24" s="22"/>
     </row>
@@ -983,7 +1076,9 @@
         <v>61</v>
       </c>
       <c r="C27" s="17"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E27" s="21"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2"/>
@@ -1011,7 +1106,9 @@
         <v>79</v>
       </c>
       <c r="C30" s="17"/>
-      <c r="D30" s="20"/>
+      <c r="D30" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="3"/>
       <c r="G30" s="2"/>
@@ -1024,7 +1121,9 @@
         <v>34</v>
       </c>
       <c r="C31" s="17"/>
-      <c r="D31" s="20"/>
+      <c r="D31" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E31" s="21"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
@@ -1038,7 +1137,9 @@
       <c r="C32" s="17"/>
       <c r="D32" s="20"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="26" t="s">
+        <v>81</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="22"/>
     </row>
@@ -1048,9 +1149,11 @@
         <v>36</v>
       </c>
       <c r="C33" s="17"/>
-      <c r="D33" s="20"/>
+      <c r="D33" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E33" s="21"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="2"/>
       <c r="H33" s="22"/>
       <c r="I33"/>
@@ -1061,7 +1164,9 @@
         <v>37</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="20"/>
+      <c r="D34" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E34" s="21"/>
       <c r="F34" s="3"/>
       <c r="G34" s="2"/>
@@ -1076,7 +1181,9 @@
       <c r="C35" s="17"/>
       <c r="D35" s="20"/>
       <c r="E35" s="21"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="26" t="s">
+        <v>82</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="22"/>
       <c r="I35"/>
@@ -1087,7 +1194,9 @@
         <v>39</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="20"/>
+      <c r="D36" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E36" s="21"/>
       <c r="F36" s="3"/>
       <c r="G36" s="2"/>
@@ -1099,7 +1208,9 @@
         <v>40</v>
       </c>
       <c r="C37" s="17"/>
-      <c r="D37" s="20"/>
+      <c r="D37" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E37" s="21"/>
       <c r="H37" s="22"/>
       <c r="I37" s="14"/>
@@ -1110,7 +1221,9 @@
         <v>41</v>
       </c>
       <c r="C38" s="14"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E38" s="21"/>
       <c r="H38" s="22"/>
       <c r="I38" s="14"/>
@@ -1119,7 +1232,9 @@
       <c r="B39" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E39" s="21"/>
       <c r="F39" s="3"/>
       <c r="G39" s="2"/>
@@ -1129,7 +1244,9 @@
       <c r="B40" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E40" s="21"/>
       <c r="F40" s="3"/>
       <c r="G40" s="2"/>
@@ -1141,7 +1258,9 @@
         <v>44</v>
       </c>
       <c r="C41" s="14"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E41" s="21"/>
       <c r="H41" s="22"/>
       <c r="I41" s="14"/>
@@ -1152,7 +1271,9 @@
         <v>45</v>
       </c>
       <c r="C42" s="14"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E42" s="21"/>
       <c r="H42" s="22"/>
       <c r="I42" s="14"/>
@@ -1163,7 +1284,9 @@
         <v>46</v>
       </c>
       <c r="C43" s="14"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E43" s="21"/>
       <c r="H43" s="22"/>
       <c r="I43" s="14"/>
@@ -1172,7 +1295,9 @@
       <c r="B44" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E44" s="21"/>
       <c r="F44" s="3"/>
       <c r="G44" s="2"/>
@@ -1182,7 +1307,9 @@
       <c r="B45" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E45" s="21"/>
       <c r="F45" s="3"/>
       <c r="G45" s="2"/>
@@ -1192,7 +1319,9 @@
       <c r="B46" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E46" s="21"/>
       <c r="F46" s="3"/>
       <c r="G46" s="2"/>
@@ -1202,7 +1331,9 @@
       <c r="B47" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E47" s="21"/>
       <c r="F47" s="3"/>
       <c r="G47" s="2"/>
@@ -1234,7 +1365,9 @@
         <v>28</v>
       </c>
       <c r="C50"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E50" s="21"/>
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
@@ -1247,7 +1380,9 @@
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="21"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="22"/>
     </row>
@@ -1259,7 +1394,9 @@
       <c r="C52"/>
       <c r="D52" s="5"/>
       <c r="E52" s="21"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="22"/>
       <c r="I52"/>
@@ -1270,7 +1407,9 @@
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="22"/>
     </row>
@@ -1280,7 +1419,9 @@
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="21"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="22"/>
     </row>
@@ -1290,7 +1431,9 @@
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="21"/>
-      <c r="F55" s="3"/>
+      <c r="F55" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="22"/>
     </row>
@@ -1300,7 +1443,7 @@
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="3"/>
+      <c r="F56" s="26"/>
       <c r="G56" s="2"/>
       <c r="H56" s="22"/>
     </row>
@@ -1310,7 +1453,9 @@
         <v>58</v>
       </c>
       <c r="C57" s="14"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E57" s="21"/>
       <c r="H57" s="22"/>
       <c r="I57" s="14"/>
@@ -1342,7 +1487,9 @@
         <v>61</v>
       </c>
       <c r="C60" s="14"/>
-      <c r="D60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E60" s="21"/>
       <c r="H60" s="22"/>
       <c r="I60" s="14"/>
@@ -1371,7 +1518,9 @@
         <v>28</v>
       </c>
       <c r="C63" s="17"/>
-      <c r="D63" s="20"/>
+      <c r="D63" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E63" s="21"/>
       <c r="F63" s="3"/>
       <c r="G63" s="2"/>
@@ -1383,7 +1532,9 @@
         <v>64</v>
       </c>
       <c r="C64" s="17"/>
-      <c r="D64" s="20"/>
+      <c r="D64" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E64" s="21"/>
       <c r="F64" s="3"/>
       <c r="G64" s="2"/>
@@ -1395,7 +1546,9 @@
         <v>65</v>
       </c>
       <c r="C65" s="17"/>
-      <c r="D65" s="20"/>
+      <c r="D65" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E65" s="21"/>
       <c r="F65" s="3"/>
       <c r="G65" s="2"/>
@@ -1407,7 +1560,9 @@
         <v>66</v>
       </c>
       <c r="C66" s="17"/>
-      <c r="D66" s="20"/>
+      <c r="D66" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E66" s="21"/>
       <c r="F66" s="3"/>
       <c r="G66" s="2"/>
@@ -1421,7 +1576,9 @@
       <c r="C67" s="17"/>
       <c r="D67" s="20"/>
       <c r="E67" s="21"/>
-      <c r="F67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="G67" s="2"/>
       <c r="H67" s="22"/>
     </row>
@@ -1433,7 +1590,9 @@
       <c r="C68" s="17"/>
       <c r="D68" s="20"/>
       <c r="E68" s="21"/>
-      <c r="F68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H68" s="23"/>
     </row>
     <row r="69" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -1442,7 +1601,9 @@
         <v>69</v>
       </c>
       <c r="C69" s="17"/>
-      <c r="D69" s="20"/>
+      <c r="D69" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E69" s="21"/>
       <c r="F69" s="3"/>
       <c r="H69" s="23"/>
@@ -1491,7 +1652,9 @@
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="21"/>
-      <c r="F74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="22"/>
       <c r="I74"/>
@@ -1503,7 +1666,9 @@
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="21"/>
-      <c r="F75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="G75" s="2"/>
       <c r="H75" s="22"/>
       <c r="J75"/>
@@ -1515,6 +1680,9 @@
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="21"/>
+      <c r="F76" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H76" s="22"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
@@ -1589,6 +1757,15 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="H3:H6"/>
   </mergeCells>
+  <conditionalFormatting sqref="F67:F68">
+    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75:F76">
+    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/OBLIGATORIO PARALELO/Lista Funcionalidades Obligatorio Ago 2020 (1).xlsx
+++ b/OBLIGATORIO PARALELO/Lista Funcionalidades Obligatorio Ago 2020 (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
   <si>
     <t>TOTAL</t>
   </si>
@@ -272,13 +272,13 @@
     <t>hacer boton el option</t>
   </si>
   <si>
-    <t>falta 1 decimal para todos cambiar funcion que calculas ademas de precarga</t>
-  </si>
-  <si>
     <t>falta que ande funcion boton</t>
   </si>
   <si>
     <t>probar</t>
+  </si>
+  <si>
+    <t>SE ROMPIO</t>
   </si>
 </sst>
 </file>
@@ -423,60 +423,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -785,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,7 +793,7 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -845,7 +805,7 @@
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
@@ -857,17 +817,17 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
@@ -938,7 +898,9 @@
       <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="H15" s="22"/>
     </row>
@@ -1121,11 +1083,11 @@
         <v>34</v>
       </c>
       <c r="C31" s="17"/>
-      <c r="D31" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="D31" s="20"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="22"/>
     </row>
@@ -1137,7 +1099,7 @@
       <c r="C32" s="17"/>
       <c r="D32" s="20"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="24" t="s">
         <v>81</v>
       </c>
       <c r="G32" s="2"/>
@@ -1153,7 +1115,7 @@
         <v>80</v>
       </c>
       <c r="E33" s="21"/>
-      <c r="F33" s="26"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="2"/>
       <c r="H33" s="22"/>
       <c r="I33"/>
@@ -1179,11 +1141,11 @@
         <v>38</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="20"/>
+      <c r="D35" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E35" s="21"/>
-      <c r="F35" s="26" t="s">
-        <v>82</v>
-      </c>
+      <c r="F35" s="24"/>
       <c r="G35" s="2"/>
       <c r="H35" s="22"/>
       <c r="I35"/>
@@ -1380,8 +1342,8 @@
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="21"/>
-      <c r="F51" s="26" t="s">
-        <v>83</v>
+      <c r="F51" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="22"/>
@@ -1394,8 +1356,8 @@
       <c r="C52"/>
       <c r="D52" s="5"/>
       <c r="E52" s="21"/>
-      <c r="F52" s="26" t="s">
-        <v>83</v>
+      <c r="F52" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="22"/>
@@ -1407,8 +1369,8 @@
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="26" t="s">
-        <v>83</v>
+      <c r="F53" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="22"/>
@@ -1419,8 +1381,8 @@
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="21"/>
-      <c r="F54" s="26" t="s">
-        <v>83</v>
+      <c r="F54" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="22"/>
@@ -1431,8 +1393,8 @@
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="21"/>
-      <c r="F55" s="26" t="s">
-        <v>83</v>
+      <c r="F55" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="22"/>
@@ -1443,7 +1405,7 @@
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="26"/>
+      <c r="F56" s="24"/>
       <c r="G56" s="2"/>
       <c r="H56" s="22"/>
     </row>
@@ -1574,11 +1536,11 @@
         <v>67</v>
       </c>
       <c r="C67" s="17"/>
-      <c r="D67" s="20"/>
+      <c r="D67" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E67" s="21"/>
-      <c r="F67" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="F67" s="3"/>
       <c r="G67" s="2"/>
       <c r="H67" s="22"/>
     </row>
@@ -1588,11 +1550,11 @@
         <v>68</v>
       </c>
       <c r="C68" s="17"/>
-      <c r="D68" s="20"/>
+      <c r="D68" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E68" s="21"/>
-      <c r="F68" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="F68" s="3"/>
       <c r="H68" s="23"/>
     </row>
     <row r="69" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -1622,7 +1584,9 @@
       <c r="B71" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="20"/>
+      <c r="D71" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E71" s="21"/>
       <c r="F71" s="3"/>
       <c r="G71" s="2"/>
@@ -1653,7 +1617,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="21"/>
       <c r="F74" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="22"/>
@@ -1667,7 +1631,7 @@
       <c r="D75" s="5"/>
       <c r="E75" s="21"/>
       <c r="F75" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="22"/>
@@ -1681,7 +1645,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="21"/>
       <c r="F76" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H76" s="22"/>
     </row>
@@ -1758,10 +1722,10 @@
     <mergeCell ref="H3:H6"/>
   </mergeCells>
   <conditionalFormatting sqref="F67:F68">
-    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:F76">
-    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>

--- a/OBLIGATORIO PARALELO/Lista Funcionalidades Obligatorio Ago 2020 (1).xlsx
+++ b/OBLIGATORIO PARALELO/Lista Funcionalidades Obligatorio Ago 2020 (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="84">
   <si>
     <t>TOTAL</t>
   </si>
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>probar</t>
-  </si>
-  <si>
-    <t>SE ROMPIO</t>
   </si>
 </sst>
 </file>
@@ -745,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1083,11 +1080,11 @@
         <v>34</v>
       </c>
       <c r="C31" s="17"/>
-      <c r="D31" s="20"/>
+      <c r="D31" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E31" s="21"/>
-      <c r="F31" s="24" t="s">
-        <v>84</v>
-      </c>
+      <c r="F31" s="24"/>
       <c r="G31" s="2"/>
       <c r="H31" s="22"/>
     </row>

--- a/OBLIGATORIO PARALELO/Lista Funcionalidades Obligatorio Ago 2020 (1).xlsx
+++ b/OBLIGATORIO PARALELO/Lista Funcionalidades Obligatorio Ago 2020 (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>TOTAL</t>
   </si>
@@ -269,13 +269,19 @@
     <t>ok</t>
   </si>
   <si>
-    <t>hacer boton el option</t>
-  </si>
-  <si>
-    <t>falta que ande funcion boton</t>
-  </si>
-  <si>
     <t>probar</t>
+  </si>
+  <si>
+    <t>Falta validacion de vacio y que no sea letra</t>
+  </si>
+  <si>
+    <t>Falta que actualice calificacion en el inmueble una vez calificado y desactivar cuando se calificó</t>
+  </si>
+  <si>
+    <t>cuando cambiamos moneda y cambiamos el filtro de ascendente y descendente a la vez ejecuta todo y no por separado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ocultar buscador y cambio de moneda y setear moneda pesos cuando se logea</t>
   </si>
 </sst>
 </file>
@@ -365,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,6 +434,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -861,7 +870,9 @@
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1094,11 +1105,11 @@
         <v>35</v>
       </c>
       <c r="C32" s="17"/>
-      <c r="D32" s="20"/>
+      <c r="D32" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="E32" s="21"/>
-      <c r="F32" s="24" t="s">
-        <v>81</v>
-      </c>
+      <c r="F32" s="24"/>
       <c r="G32" s="2"/>
       <c r="H32" s="22"/>
     </row>
@@ -1158,7 +1169,9 @@
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="27" t="s">
+        <v>84</v>
+      </c>
       <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1337,11 +1350,11 @@
       <c r="B51" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E51" s="21"/>
-      <c r="F51" s="24" t="s">
-        <v>82</v>
-      </c>
+      <c r="F51" s="24"/>
       <c r="G51" s="2"/>
       <c r="H51" s="22"/>
     </row>
@@ -1351,11 +1364,11 @@
         <v>53</v>
       </c>
       <c r="C52"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E52" s="21"/>
-      <c r="F52" s="24" t="s">
-        <v>82</v>
-      </c>
+      <c r="F52" s="24"/>
       <c r="G52" s="2"/>
       <c r="H52" s="22"/>
       <c r="I52"/>
@@ -1364,11 +1377,11 @@
       <c r="B53" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E53" s="21"/>
-      <c r="F53" s="24" t="s">
-        <v>82</v>
-      </c>
+      <c r="F53" s="24"/>
       <c r="G53" s="2"/>
       <c r="H53" s="22"/>
     </row>
@@ -1376,11 +1389,11 @@
       <c r="B54" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E54" s="21"/>
-      <c r="F54" s="24" t="s">
-        <v>82</v>
-      </c>
+      <c r="F54" s="24"/>
       <c r="G54" s="2"/>
       <c r="H54" s="22"/>
     </row>
@@ -1400,7 +1413,9 @@
       <c r="B56" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E56" s="21"/>
       <c r="F56" s="24"/>
       <c r="G56" s="2"/>
@@ -1425,7 +1440,9 @@
         <v>59</v>
       </c>
       <c r="C58" s="14"/>
-      <c r="D58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="E58" s="21"/>
       <c r="H58" s="22"/>
       <c r="I58" s="14"/>
@@ -1436,7 +1453,9 @@
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="21"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="22"/>
     </row>
@@ -1481,7 +1500,9 @@
         <v>80</v>
       </c>
       <c r="E63" s="21"/>
-      <c r="F63" s="3"/>
+      <c r="F63" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="G63" s="2"/>
       <c r="H63" s="22"/>
     </row>
@@ -1614,7 +1635,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="21"/>
       <c r="F74" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="22"/>
@@ -1628,7 +1649,7 @@
       <c r="D75" s="5"/>
       <c r="E75" s="21"/>
       <c r="F75" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="22"/>
@@ -1642,7 +1663,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="21"/>
       <c r="F76" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H76" s="22"/>
     </row>

--- a/OBLIGATORIO PARALELO/Lista Funcionalidades Obligatorio Ago 2020 (1).xlsx
+++ b/OBLIGATORIO PARALELO/Lista Funcionalidades Obligatorio Ago 2020 (1).xlsx
@@ -281,14 +281,14 @@
     <t>cuando cambiamos moneda y cambiamos el filtro de ascendente y descendente a la vez ejecuta todo y no por separado</t>
   </si>
   <si>
-    <t xml:space="preserve"> ocultar buscador y cambio de moneda y setear moneda pesos cuando se logea</t>
+    <t>No se está viendo la foto al ver el inmueble registrado y resolver la calificacion para que no aparezca NAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +321,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -371,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,7 +441,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -751,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1169,7 +1176,7 @@
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="28" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="22"/>
@@ -1318,7 +1325,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="22"/>
     </row>
-    <row r="49" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>51</v>
       </c>
@@ -1331,7 +1338,7 @@
       <c r="H49" s="22"/>
       <c r="I49"/>
     </row>
-    <row r="50" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="B50" s="17" t="s">
         <v>28</v>
@@ -1346,7 +1353,7 @@
       <c r="H50" s="22"/>
       <c r="I50"/>
     </row>
-    <row r="51" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="14" t="s">
         <v>52</v>
       </c>
@@ -1358,7 +1365,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="22"/>
     </row>
-    <row r="52" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52"/>
       <c r="B52" t="s">
         <v>53</v>
@@ -1373,7 +1380,7 @@
       <c r="H52" s="22"/>
       <c r="I52"/>
     </row>
-    <row r="53" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B53" s="14" t="s">
         <v>54</v>
       </c>
@@ -1385,7 +1392,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="22"/>
     </row>
-    <row r="54" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="14" t="s">
         <v>55</v>
       </c>
@@ -1397,7 +1404,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="22"/>
     </row>
-    <row r="55" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B55" s="14" t="s">
         <v>56</v>
       </c>
@@ -1409,7 +1416,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="22"/>
     </row>
-    <row r="56" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B56" s="14" t="s">
         <v>57</v>
       </c>
@@ -1421,7 +1428,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="22"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
       <c r="B57" s="14" t="s">
         <v>58</v>
@@ -1434,7 +1441,7 @@
       <c r="H57" s="22"/>
       <c r="I57" s="14"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="14"/>
       <c r="B58" s="14" t="s">
         <v>59</v>
@@ -1447,7 +1454,7 @@
       <c r="H58" s="22"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="14" t="s">
         <v>60</v>
       </c>
@@ -1459,7 +1466,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="22"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="14"/>
       <c r="B60" s="14" t="s">
         <v>61</v>
@@ -1472,13 +1479,13 @@
       <c r="H60" s="22"/>
       <c r="I60" s="14"/>
     </row>
-    <row r="61" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="2"/>
       <c r="H61" s="22"/>
     </row>
-    <row r="62" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
         <v>62</v>
       </c>
@@ -1490,7 +1497,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="16"/>
       <c r="B63" s="17" t="s">
         <v>28</v>
@@ -1500,13 +1507,12 @@
         <v>80</v>
       </c>
       <c r="E63" s="21"/>
-      <c r="F63" s="24" t="s">
-        <v>85</v>
-      </c>
+      <c r="F63" s="24"/>
       <c r="G63" s="2"/>
       <c r="H63" s="22"/>
-    </row>
-    <row r="64" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J63" s="27"/>
+    </row>
+    <row r="64" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="16"/>
       <c r="B64" s="17" t="s">
         <v>64</v>
@@ -1594,7 +1600,9 @@
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="21"/>
-      <c r="F70" s="3"/>
+      <c r="F70" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="G70" s="2"/>
       <c r="H70" s="22"/>
     </row>
